--- a/Database.xlsx
+++ b/Database.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\khel\Git\Software Engineering\SE_FW1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A876493A-5A43-4469-BB9C-209B4D790A4A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC53320C-45E2-4C31-B47D-803CEE79EB93}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{B4DCC979-AE5F-4618-8B65-F3CE2FCB6E2D}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="104">
   <si>
     <t>DATABASE</t>
   </si>
@@ -147,6 +147,201 @@
   </si>
   <si>
     <t>NetWeight</t>
+  </si>
+  <si>
+    <t>Others</t>
+  </si>
+  <si>
+    <t>CustomerSeries</t>
+  </si>
+  <si>
+    <t>EDA</t>
+  </si>
+  <si>
+    <t>Contact</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>Mobile</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Remarks</t>
+  </si>
+  <si>
+    <t>SalesPersonID</t>
+  </si>
+  <si>
+    <t>ContainerNo</t>
+  </si>
+  <si>
+    <t>BillOfLading</t>
+  </si>
+  <si>
+    <t>Forwarder</t>
+  </si>
+  <si>
+    <t>ForwarderContactPerson</t>
+  </si>
+  <si>
+    <t>ForwarderContactNo</t>
+  </si>
+  <si>
+    <t>ForwarderFaxNo</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>TDCode</t>
+  </si>
+  <si>
+    <t>Consignee</t>
+  </si>
+  <si>
+    <t>DeliveredTo</t>
+  </si>
+  <si>
+    <t>Address1</t>
+  </si>
+  <si>
+    <t>Address2</t>
+  </si>
+  <si>
+    <t>NbrDRCreated</t>
+  </si>
+  <si>
+    <t>Billed</t>
+  </si>
+  <si>
+    <t>CASNo</t>
+  </si>
+  <si>
+    <t>CASApprovalDate</t>
+  </si>
+  <si>
+    <t>CASExpirationDate</t>
+  </si>
+  <si>
+    <t>CASReceivedBy</t>
+  </si>
+  <si>
+    <t>CASReceivedDate</t>
+  </si>
+  <si>
+    <t>SupplierInfo</t>
+  </si>
+  <si>
+    <t>ShipmentDeposit</t>
+  </si>
+  <si>
+    <t>ShipmentDepositRefund</t>
+  </si>
+  <si>
+    <t>ShipmentAdvances</t>
+  </si>
+  <si>
+    <t>CustomerDeposit</t>
+  </si>
+  <si>
+    <t>PaymentType</t>
+  </si>
+  <si>
+    <t>PaymentDate</t>
+  </si>
+  <si>
+    <t>CheckNo</t>
+  </si>
+  <si>
+    <t>CheckDate</t>
+  </si>
+  <si>
+    <t>BrokerageFee</t>
+  </si>
+  <si>
+    <t>SOA</t>
+  </si>
+  <si>
+    <t>SOADate</t>
+  </si>
+  <si>
+    <t>DueDate</t>
+  </si>
+  <si>
+    <t>BillingStatus</t>
+  </si>
+  <si>
+    <t>EncodedDate</t>
+  </si>
+  <si>
+    <t>ApprovedBy</t>
+  </si>
+  <si>
+    <t>ApprovedDate</t>
+  </si>
+  <si>
+    <t>BillApprovedBy</t>
+  </si>
+  <si>
+    <t>BillPreparedBy</t>
+  </si>
+  <si>
+    <t>EncodedBy</t>
+  </si>
+  <si>
+    <t>Forwarder2</t>
+  </si>
+  <si>
+    <t>Brokerage</t>
+  </si>
+  <si>
+    <t>Discount</t>
+  </si>
+  <si>
+    <t>EWT</t>
+  </si>
+  <si>
+    <t>ARNo</t>
+  </si>
+  <si>
+    <t>IntegDB</t>
+  </si>
+  <si>
+    <t>IntegServer</t>
+  </si>
+  <si>
+    <t>Processed</t>
+  </si>
+  <si>
+    <t>ServiceFeeRemarks</t>
+  </si>
+  <si>
+    <t>SuppSOADate</t>
+  </si>
+  <si>
+    <t>BossForApprovedBy</t>
+  </si>
+  <si>
+    <t>BossForApprovedDate</t>
+  </si>
+  <si>
+    <t>BossApprovedRemarks</t>
+  </si>
+  <si>
+    <t>BossApprovedBy</t>
+  </si>
+  <si>
+    <t>BossApprovedDate</t>
+  </si>
+  <si>
+    <t>SupplierName</t>
+  </si>
+  <si>
+    <t>SupplierAddress</t>
   </si>
 </sst>
 </file>
@@ -177,7 +372,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -202,6 +397,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -215,13 +416,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -229,7 +433,10 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -546,284 +753,743 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DDA0569-E857-430C-80B3-28389F909830}">
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:U22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3:I3"/>
+    <sheetView tabSelected="1" topLeftCell="J2" workbookViewId="0">
+      <selection activeCell="S12" sqref="S12:U12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="4" t="s">
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="5" t="s">
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2" t="s">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2" t="s">
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="T4" s="6"/>
+      <c r="U4" s="6"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2" t="s">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2" t="s">
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D6" s="2" t="s">
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="T5" s="6"/>
+      <c r="U5" s="6"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="D6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2" t="s">
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D7" s="2" t="s">
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="T6" s="6"/>
+      <c r="U6" s="6"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="D7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2" t="s">
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D8" s="2" t="s">
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="T7" s="6"/>
+      <c r="U7" s="6"/>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="D8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2" t="s">
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D9" s="2" t="s">
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="T8" s="6"/>
+      <c r="U8" s="6"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="D9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2" t="s">
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D10" s="2" t="s">
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6"/>
+      <c r="S9" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="T9" s="6"/>
+      <c r="U9" s="6"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="D10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2" t="s">
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D11" s="2" t="s">
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="6"/>
+      <c r="S10" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="T10" s="6"/>
+      <c r="U10" s="6"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="D11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2" t="s">
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D12" s="2" t="s">
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6"/>
+      <c r="S11" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="T11" s="6"/>
+      <c r="U11" s="6"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="D12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2" t="s">
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D13" s="2" t="s">
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="6"/>
+      <c r="S12" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="T12" s="6"/>
+      <c r="U12" s="6"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="D13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2" t="s">
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D14" s="2" t="s">
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="6"/>
+      <c r="T13" s="6"/>
+      <c r="U13" s="6"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="D14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2" t="s">
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D15" s="2" t="s">
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6"/>
+      <c r="S14" s="6"/>
+      <c r="T14" s="6"/>
+      <c r="U14" s="6"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="D15" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2" t="s">
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D16" s="2" t="s">
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="6"/>
+      <c r="S15" s="6"/>
+      <c r="T15" s="6"/>
+      <c r="U15" s="6"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="D16" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2" t="s">
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-    </row>
-    <row r="17" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D17" s="2" t="s">
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="6"/>
+      <c r="S16" s="6"/>
+      <c r="T16" s="6"/>
+      <c r="U16" s="6"/>
+    </row>
+    <row r="17" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D17" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2" t="s">
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-    </row>
-    <row r="18" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="G18" s="2" t="s">
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="6"/>
+      <c r="S17" s="6"/>
+      <c r="T17" s="6"/>
+      <c r="U17" s="6"/>
+    </row>
+    <row r="18" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="G18" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-    </row>
-    <row r="19" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="G19" s="2" t="s">
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="6"/>
+      <c r="S18" s="6"/>
+      <c r="T18" s="6"/>
+      <c r="U18" s="6"/>
+    </row>
+    <row r="19" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="G19" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-    </row>
-    <row r="20" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="G20" s="2" t="s">
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q19" s="6"/>
+      <c r="R19" s="6"/>
+      <c r="S19" s="6"/>
+      <c r="T19" s="6"/>
+      <c r="U19" s="6"/>
+    </row>
+    <row r="20" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="G20" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-    </row>
-    <row r="21" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="G21" s="2" t="s">
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q20" s="6"/>
+      <c r="R20" s="6"/>
+      <c r="S20" s="6"/>
+      <c r="T20" s="6"/>
+      <c r="U20" s="6"/>
+    </row>
+    <row r="21" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="G21" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-    </row>
-    <row r="22" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="G22" s="2" t="s">
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="N21" s="6"/>
+      <c r="O21" s="6"/>
+      <c r="P21" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q21" s="6"/>
+      <c r="R21" s="6"/>
+      <c r="S21" s="6"/>
+      <c r="T21" s="6"/>
+      <c r="U21" s="6"/>
+    </row>
+    <row r="22" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="G22" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="N22" s="6"/>
+      <c r="O22" s="6"/>
+      <c r="P22" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q22" s="6"/>
+      <c r="R22" s="6"/>
+      <c r="S22" s="6"/>
+      <c r="T22" s="6"/>
+      <c r="U22" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="39">
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="G16:I16"/>
+  <mergeCells count="119">
+    <mergeCell ref="S18:U18"/>
+    <mergeCell ref="S19:U19"/>
+    <mergeCell ref="S20:U20"/>
+    <mergeCell ref="S21:U21"/>
+    <mergeCell ref="S22:U22"/>
+    <mergeCell ref="P22:R22"/>
+    <mergeCell ref="S3:U3"/>
+    <mergeCell ref="S4:U4"/>
+    <mergeCell ref="S5:U5"/>
+    <mergeCell ref="S6:U6"/>
+    <mergeCell ref="S7:U7"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="S9:U9"/>
+    <mergeCell ref="S10:U10"/>
+    <mergeCell ref="S11:U11"/>
+    <mergeCell ref="S12:U12"/>
+    <mergeCell ref="S13:U13"/>
+    <mergeCell ref="S14:U14"/>
+    <mergeCell ref="S15:U15"/>
+    <mergeCell ref="S16:U16"/>
+    <mergeCell ref="S17:U17"/>
+    <mergeCell ref="P17:R17"/>
+    <mergeCell ref="P18:R18"/>
+    <mergeCell ref="P19:R19"/>
+    <mergeCell ref="P20:R20"/>
+    <mergeCell ref="P21:R21"/>
+    <mergeCell ref="P12:R12"/>
+    <mergeCell ref="P13:R13"/>
+    <mergeCell ref="P14:R14"/>
+    <mergeCell ref="P15:R15"/>
+    <mergeCell ref="P16:R16"/>
+    <mergeCell ref="P7:R7"/>
+    <mergeCell ref="P8:R8"/>
+    <mergeCell ref="P9:R9"/>
+    <mergeCell ref="P10:R10"/>
+    <mergeCell ref="P11:R11"/>
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="P4:R4"/>
+    <mergeCell ref="P5:R5"/>
+    <mergeCell ref="P6:R6"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="M20:O20"/>
+    <mergeCell ref="M21:O21"/>
+    <mergeCell ref="M22:O22"/>
+    <mergeCell ref="M13:O13"/>
+    <mergeCell ref="M14:O14"/>
+    <mergeCell ref="M15:O15"/>
+    <mergeCell ref="M16:O16"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="M9:O9"/>
+    <mergeCell ref="M10:O10"/>
+    <mergeCell ref="M11:O11"/>
+    <mergeCell ref="M12:O12"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="M4:O4"/>
+    <mergeCell ref="M5:O5"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="M7:O7"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="A1:J2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="J7:L7"/>
     <mergeCell ref="D16:F16"/>
     <mergeCell ref="D17:F17"/>
     <mergeCell ref="G3:I3"/>
@@ -840,17 +1506,18 @@
     <mergeCell ref="D8:F8"/>
     <mergeCell ref="D15:F15"/>
     <mergeCell ref="D7:F7"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="A1:J2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="G21:I21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>

--- a/Database.xlsx
+++ b/Database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\khel\Git\Software Engineering\SE_FW1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC53320C-45E2-4C31-B47D-803CEE79EB93}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CAB01BF-6A18-4457-A979-E20197827EA8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{B4DCC979-AE5F-4618-8B65-F3CE2FCB6E2D}"/>
   </bookViews>
@@ -419,10 +419,13 @@
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -433,10 +436,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -755,650 +755,745 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DDA0569-E857-430C-80B3-28389F909830}">
   <dimension ref="A1:U22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J2" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
       <selection activeCell="S12" sqref="S12:U12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="5" t="s">
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="2" t="s">
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="7" t="s">
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7" t="s">
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7" t="s">
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="7"/>
-      <c r="S3" s="7" t="s">
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="T3" s="7"/>
-      <c r="U3" s="7"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1" t="s">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1" t="s">
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="6" t="s">
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6" t="s">
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6" t="s">
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
-      <c r="S4" s="6" t="s">
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="T4" s="6"/>
-      <c r="U4" s="6"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1" t="s">
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1" t="s">
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="6" t="s">
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6" t="s">
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6" t="s">
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6"/>
-      <c r="S5" s="6" t="s">
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="T5" s="6"/>
-      <c r="U5" s="6"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1" t="s">
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="6" t="s">
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6" t="s">
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6" t="s">
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="6"/>
-      <c r="S6" s="6" t="s">
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="T6" s="6"/>
-      <c r="U6" s="6"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1" t="s">
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="6" t="s">
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6" t="s">
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6" t="s">
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="6"/>
-      <c r="S7" s="6" t="s">
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="T7" s="6"/>
-      <c r="U7" s="6"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1" t="s">
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="6" t="s">
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6" t="s">
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6" t="s">
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="Q8" s="6"/>
-      <c r="R8" s="6"/>
-      <c r="S8" s="6" t="s">
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="T8" s="6"/>
-      <c r="U8" s="6"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1" t="s">
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="6" t="s">
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6" t="s">
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="N9" s="6"/>
-      <c r="O9" s="6"/>
-      <c r="P9" s="6" t="s">
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="Q9" s="6"/>
-      <c r="R9" s="6"/>
-      <c r="S9" s="6" t="s">
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="T9" s="6"/>
-      <c r="U9" s="6"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1" t="s">
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="6" t="s">
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6" t="s">
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="N10" s="6"/>
-      <c r="O10" s="6"/>
-      <c r="P10" s="6" t="s">
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="Q10" s="6"/>
-      <c r="R10" s="6"/>
-      <c r="S10" s="6" t="s">
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="T10" s="6"/>
-      <c r="U10" s="6"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1" t="s">
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="6" t="s">
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6" t="s">
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="N11" s="6"/>
-      <c r="O11" s="6"/>
-      <c r="P11" s="6" t="s">
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="Q11" s="6"/>
-      <c r="R11" s="6"/>
-      <c r="S11" s="6" t="s">
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="T11" s="6"/>
-      <c r="U11" s="6"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1" t="s">
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="6" t="s">
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6" t="s">
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="N12" s="6"/>
-      <c r="O12" s="6"/>
-      <c r="P12" s="6" t="s">
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="Q12" s="6"/>
-      <c r="R12" s="6"/>
-      <c r="S12" s="6" t="s">
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="T12" s="6"/>
-      <c r="U12" s="6"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1" t="s">
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="6" t="s">
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6" t="s">
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="N13" s="6"/>
-      <c r="O13" s="6"/>
-      <c r="P13" s="6" t="s">
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="Q13" s="6"/>
-      <c r="R13" s="6"/>
-      <c r="S13" s="6"/>
-      <c r="T13" s="6"/>
-      <c r="U13" s="6"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1" t="s">
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="6" t="s">
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6" t="s">
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="N14" s="6"/>
-      <c r="O14" s="6"/>
-      <c r="P14" s="6" t="s">
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="Q14" s="6"/>
-      <c r="R14" s="6"/>
-      <c r="S14" s="6"/>
-      <c r="T14" s="6"/>
-      <c r="U14" s="6"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1" t="s">
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="6" t="s">
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6" t="s">
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="N15" s="6"/>
-      <c r="O15" s="6"/>
-      <c r="P15" s="6" t="s">
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="Q15" s="6"/>
-      <c r="R15" s="6"/>
-      <c r="S15" s="6"/>
-      <c r="T15" s="6"/>
-      <c r="U15" s="6"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1" t="s">
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="6" t="s">
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6" t="s">
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="N16" s="6"/>
-      <c r="O16" s="6"/>
-      <c r="P16" s="6" t="s">
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="Q16" s="6"/>
-      <c r="R16" s="6"/>
-      <c r="S16" s="6"/>
-      <c r="T16" s="6"/>
-      <c r="U16" s="6"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
     </row>
     <row r="17" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1" t="s">
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="6" t="s">
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6" t="s">
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="N17" s="6"/>
-      <c r="O17" s="6"/>
-      <c r="P17" s="6" t="s">
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="Q17" s="6"/>
-      <c r="R17" s="6"/>
-      <c r="S17" s="6"/>
-      <c r="T17" s="6"/>
-      <c r="U17" s="6"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
     </row>
     <row r="18" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="G18" s="1" t="s">
+      <c r="G18" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="6" t="s">
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6" t="s">
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="N18" s="6"/>
-      <c r="O18" s="6"/>
-      <c r="P18" s="6" t="s">
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="Q18" s="6"/>
-      <c r="R18" s="6"/>
-      <c r="S18" s="6"/>
-      <c r="T18" s="6"/>
-      <c r="U18" s="6"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
     </row>
     <row r="19" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="G19" s="1" t="s">
+      <c r="G19" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="6" t="s">
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6" t="s">
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="N19" s="6"/>
-      <c r="O19" s="6"/>
-      <c r="P19" s="6" t="s">
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="Q19" s="6"/>
-      <c r="R19" s="6"/>
-      <c r="S19" s="6"/>
-      <c r="T19" s="6"/>
-      <c r="U19" s="6"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
     </row>
     <row r="20" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="G20" s="1" t="s">
+      <c r="G20" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="6" t="s">
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="6" t="s">
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="N20" s="6"/>
-      <c r="O20" s="6"/>
-      <c r="P20" s="6" t="s">
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="Q20" s="6"/>
-      <c r="R20" s="6"/>
-      <c r="S20" s="6"/>
-      <c r="T20" s="6"/>
-      <c r="U20" s="6"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+      <c r="U20" s="1"/>
     </row>
     <row r="21" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="G21" s="1" t="s">
+      <c r="G21" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="6" t="s">
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="K21" s="6"/>
-      <c r="L21" s="6"/>
-      <c r="M21" s="6" t="s">
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="N21" s="6"/>
-      <c r="O21" s="6"/>
-      <c r="P21" s="6" t="s">
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="Q21" s="6"/>
-      <c r="R21" s="6"/>
-      <c r="S21" s="6"/>
-      <c r="T21" s="6"/>
-      <c r="U21" s="6"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="1"/>
+      <c r="T21" s="1"/>
+      <c r="U21" s="1"/>
     </row>
     <row r="22" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="G22" s="1" t="s">
+      <c r="G22" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="6" t="s">
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="K22" s="6"/>
-      <c r="L22" s="6"/>
-      <c r="M22" s="6" t="s">
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="N22" s="6"/>
-      <c r="O22" s="6"/>
-      <c r="P22" s="6" t="s">
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="Q22" s="6"/>
-      <c r="R22" s="6"/>
-      <c r="S22" s="6"/>
-      <c r="T22" s="6"/>
-      <c r="U22" s="6"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
+      <c r="T22" s="1"/>
+      <c r="U22" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="119">
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="A1:J2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="P4:R4"/>
+    <mergeCell ref="P5:R5"/>
+    <mergeCell ref="P6:R6"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="M20:O20"/>
+    <mergeCell ref="M21:O21"/>
+    <mergeCell ref="M22:O22"/>
+    <mergeCell ref="M13:O13"/>
+    <mergeCell ref="M14:O14"/>
+    <mergeCell ref="M15:O15"/>
+    <mergeCell ref="M16:O16"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="M9:O9"/>
+    <mergeCell ref="M10:O10"/>
+    <mergeCell ref="M11:O11"/>
+    <mergeCell ref="M12:O12"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="M4:O4"/>
+    <mergeCell ref="M5:O5"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="M7:O7"/>
+    <mergeCell ref="P20:R20"/>
+    <mergeCell ref="P21:R21"/>
+    <mergeCell ref="P12:R12"/>
+    <mergeCell ref="P13:R13"/>
+    <mergeCell ref="P14:R14"/>
+    <mergeCell ref="P15:R15"/>
+    <mergeCell ref="P16:R16"/>
+    <mergeCell ref="P7:R7"/>
+    <mergeCell ref="P8:R8"/>
+    <mergeCell ref="P9:R9"/>
+    <mergeCell ref="P10:R10"/>
+    <mergeCell ref="P11:R11"/>
     <mergeCell ref="S18:U18"/>
     <mergeCell ref="S19:U19"/>
     <mergeCell ref="S20:U20"/>
@@ -1423,101 +1518,6 @@
     <mergeCell ref="P17:R17"/>
     <mergeCell ref="P18:R18"/>
     <mergeCell ref="P19:R19"/>
-    <mergeCell ref="P20:R20"/>
-    <mergeCell ref="P21:R21"/>
-    <mergeCell ref="P12:R12"/>
-    <mergeCell ref="P13:R13"/>
-    <mergeCell ref="P14:R14"/>
-    <mergeCell ref="P15:R15"/>
-    <mergeCell ref="P16:R16"/>
-    <mergeCell ref="P7:R7"/>
-    <mergeCell ref="P8:R8"/>
-    <mergeCell ref="P9:R9"/>
-    <mergeCell ref="P10:R10"/>
-    <mergeCell ref="P11:R11"/>
-    <mergeCell ref="P3:R3"/>
-    <mergeCell ref="P4:R4"/>
-    <mergeCell ref="P5:R5"/>
-    <mergeCell ref="P6:R6"/>
-    <mergeCell ref="M18:O18"/>
-    <mergeCell ref="M19:O19"/>
-    <mergeCell ref="M20:O20"/>
-    <mergeCell ref="M21:O21"/>
-    <mergeCell ref="M22:O22"/>
-    <mergeCell ref="M13:O13"/>
-    <mergeCell ref="M14:O14"/>
-    <mergeCell ref="M15:O15"/>
-    <mergeCell ref="M16:O16"/>
-    <mergeCell ref="M17:O17"/>
-    <mergeCell ref="M8:O8"/>
-    <mergeCell ref="M9:O9"/>
-    <mergeCell ref="M10:O10"/>
-    <mergeCell ref="M11:O11"/>
-    <mergeCell ref="M12:O12"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="M4:O4"/>
-    <mergeCell ref="M5:O5"/>
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="M7:O7"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="A1:J2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="G21:I21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
